--- a/biology/Zoologie/Eurylaime_à_capuchon/Eurylaime_à_capuchon.xlsx
+++ b/biology/Zoologie/Eurylaime_à_capuchon/Eurylaime_à_capuchon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eurylaime_%C3%A0_capuchon</t>
+          <t>Eurylaime_à_capuchon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurylaimus ochromalus
 L'Eurylaime à capuchon (Eurylaimus ochromalus) est une espèce de passereau appartenant à la famille des Eurylaimidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eurylaime_%C3%A0_capuchon</t>
+          <t>Eurylaime_à_capuchon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'eurylaime à capuchon a une taille de 15 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'eurylaime à capuchon a une taille de 15 cm.
 Il a une tête noire, un bec entièrement bleu, un collier blanc caractéristique autour du cou, une poitrine rosée et un bas du ventre jaune, un dos, des ailes et une queue noirs et jaunes.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eurylaime_%C3%A0_capuchon</t>
+          <t>Eurylaime_à_capuchon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cet oiseau en Birmanie, en Thaïlande, en Malaisie, à Singapour et en Indonésie.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Eurylaime_%C3%A0_capuchon</t>
+          <t>Eurylaime_à_capuchon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce mangeur d'insectes vit en groupe dans les étages supérieurs et intermédiaires de la forêt tropicale[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mangeur d'insectes vit en groupe dans les étages supérieurs et intermédiaires de la forêt tropicale.
 </t>
         </is>
       </c>
